--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="要求式样" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>实时的图像不能放大，原因不明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑到同步的采集图像过程，暂时使用System.Windows.Forms.Timer定时器，如果测试中感觉到画面有明显的反应慢的问题，修改为System.Threading.Timer。注意同步问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +124,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -171,6 +185,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -484,6 +499,7 @@
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="33.125" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -517,13 +533,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>42156</v>
+        <v>42155</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="F2" s="5">
+        <v>42155</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -534,12 +556,12 @@
         <v>8</v>
       </c>
       <c r="C3" s="5">
-        <v>42156</v>
+        <v>42155</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -551,13 +573,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="5">
-        <v>42156</v>
+        <v>42155</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="F4" s="5">
+        <v>42155</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -568,12 +593,12 @@
         <v>8</v>
       </c>
       <c r="C5" s="5">
-        <v>42156</v>
+        <v>42155</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -585,12 +610,12 @@
         <v>8</v>
       </c>
       <c r="C6" s="5">
-        <v>42156</v>
+        <v>42155</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -605,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -654,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="5">
-        <v>42156</v>
+        <v>42155</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="要求式样" sheetId="1" r:id="rId1"/>
     <sheet name="Bug List" sheetId="2" r:id="rId2"/>
     <sheet name="Wiki" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,33 @@
   </si>
   <si>
     <t>考虑到同步的采集图像过程，暂时使用System.Windows.Forms.Timer定时器，如果测试中感觉到画面有明显的反应慢的问题，修改为System.Threading.Timer。注意同步问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C#脱离Halcon编程开发环境使用方法:
+在没有安装Halcon开发程序（HDevelop (SSE2)）的电脑上面编程，使C#脱离Halcon编程开发环境使用方法，除了按照Halcon与编程环境必须要做的设置步骤外，还需要做如下两个工作： 
+1. 必须将halcon.dll  halcondotnet.dll   license 三个文件库复制到工程文件运行目录下，即（\bin\Debug目录下）；（注：另外halcon.dll库文件也可以复制到C:\WINDOWS目录下） 
+2. 然后创建C:\Program Files\MVTec\halcon\help目录，再把help文件复制进去。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法在64位计算机上运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程配置：
+1 目标平台X86
+2 Halcon库引用32位DLL（halcon.dll）
+这样，在32,64位计算机上都可以正常运行了。
+原因可能是相机的DLL是32位的DLL，所以都要设置到32位平台下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程设置：目标平台改为X86</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -186,6 +213,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -489,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -631,7 +664,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -639,7 +672,7 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="5" max="5" width="37.75" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
@@ -689,8 +722,26 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C3" s="5"/>
+    <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <f ca="1">NOW()</f>
+        <v>42171.94149571759</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5">
+        <v>42171</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -700,16 +751,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="90.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -726,9 +777,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:4" ht="81.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="要求式样" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,6 +114,10 @@
   </si>
   <si>
     <t>工程设置：目标平台改为X86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为多文档程序。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,12 +151,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -212,7 +206,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -522,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -563,22 +556,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
         <v>42155</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5">
         <v>42155</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -586,16 +579,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5">
         <v>42155</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5">
+        <v>42173</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -603,16 +599,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5">
         <v>42155</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5">
         <v>42155</v>
@@ -623,16 +619,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5">
         <v>42155</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5">
+        <v>42173</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -640,16 +639,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5">
         <v>42155</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5">
+        <v>42173</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +666,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -692,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -709,18 +711,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5">
         <v>42155</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5">
+        <v>42173</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
@@ -728,16 +735,16 @@
       </c>
       <c r="C3" s="5">
         <f ca="1">NOW()</f>
-        <v>42171.94149571759</v>
+        <v>42173.87733541667</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G3" s="5">
         <v>42171</v>
@@ -746,6 +753,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -753,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -781,16 +789,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>19</v>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
